--- a/service/Excel/template_del.xlsx
+++ b/service/Excel/template_del.xlsx
@@ -25,7 +25,7 @@
     <t>fb storis</t>
   </si>
   <si>
-    <t>FB Trast</t>
+    <t>FB Trast2</t>
   </si>
 </sst>
 </file>
@@ -123,9 +123,9 @@
       </bottom>
     </border>
     <border>
-      <top style="medium">
-        <color rgb="000000" tint="0"/>
-      </top>
+      <left style="medium">
+        <color rgb="000000" tint="0"/>
+      </left>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -401,22 +401,42 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="C3" s="0" t="n">
-        <v>2</v>
+      <c r="C3" s="5" t="n">
+        <v>71</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="C4" s="0" t="n">
-        <v>3</v>
+      <c r="C4" s="5" t="n">
+        <v>81</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="C5" s="0" t="n">
-        <v>4</v>
+      <c r="C5" s="5" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="C6" s="5" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="C7" s="5" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="C8" s="5" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="C9" s="5" t="n">
+        <v>11212</v>
       </c>
     </row>
   </sheetData>
